--- a/named_entity_recognition/NER_dictionaries.xlsx
+++ b/named_entity_recognition/NER_dictionaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\CTF_writeups_NLP_analysis\dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\CTF_writeups_NLP_analysis\named_entity_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1EB10-FC69-4A73-9DA5-6F19285215F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF46C1-F268-4723-A50E-5B62B6569DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="317">
   <si>
     <t>SQL Injection</t>
   </si>
@@ -498,9 +498,6 @@
     <t>Uniform Resource Locator</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Endpoint</t>
   </si>
   <si>
@@ -594,18 +591,12 @@
     <t>Referrer</t>
   </si>
   <si>
-    <t>IP address</t>
-  </si>
-  <si>
     <t>Domain name</t>
   </si>
   <si>
     <t>Subdomain</t>
   </si>
   <si>
-    <t>Port</t>
-  </si>
-  <si>
     <t>SSL/TLS certificate</t>
   </si>
   <si>
@@ -933,9 +924,6 @@
     <t>TARGET_COMPONENT</t>
   </si>
   <si>
-    <t>VULNERABILITY_CWE</t>
-  </si>
-  <si>
     <t>Redis</t>
   </si>
   <si>
@@ -982,6 +970,12 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>VULNERABILITY</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:XFD220"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,575 +1306,575 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B70" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
@@ -1888,7 +1882,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
@@ -1896,7 +1890,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
         <v>68</v>
@@ -1912,7 +1906,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
@@ -1920,7 +1914,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
         <v>68</v>
@@ -1928,7 +1922,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
         <v>68</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
         <v>68</v>
@@ -1944,7 +1938,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>68</v>
@@ -1952,7 +1946,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
         <v>68</v>
@@ -1968,7 +1962,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
         <v>68</v>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
         <v>68</v>
@@ -1984,7 +1978,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>68</v>
@@ -1992,7 +1986,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
         <v>68</v>
@@ -2000,7 +1994,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
         <v>68</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
         <v>68</v>
@@ -2016,7 +2010,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
         <v>68</v>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
         <v>68</v>
@@ -2032,7 +2026,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
@@ -2040,7 +2034,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
         <v>68</v>
@@ -2048,7 +2042,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
         <v>68</v>
@@ -2056,7 +2050,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
         <v>68</v>
@@ -2064,7 +2058,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
@@ -2072,7 +2066,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
         <v>68</v>
@@ -2080,7 +2074,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
         <v>68</v>
@@ -2088,7 +2082,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
         <v>68</v>
@@ -2096,7 +2090,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
         <v>68</v>
@@ -2104,7 +2098,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
         <v>68</v>
@@ -2112,7 +2106,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
@@ -2120,7 +2114,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
         <v>68</v>
@@ -2128,7 +2122,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
         <v>68</v>
@@ -2136,7 +2130,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
         <v>68</v>
@@ -2144,7 +2138,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
         <v>68</v>
@@ -2152,7 +2146,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
         <v>68</v>
@@ -2160,7 +2154,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
         <v>68</v>
@@ -2168,7 +2162,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="B109" t="s">
         <v>68</v>
@@ -2176,7 +2170,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
         <v>68</v>
@@ -2184,7 +2178,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
         <v>68</v>
@@ -2192,7 +2186,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
         <v>68</v>
@@ -2200,7 +2194,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
         <v>68</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
         <v>68</v>
@@ -2216,7 +2210,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
         <v>68</v>
@@ -2224,7 +2218,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
         <v>68</v>
@@ -2232,7 +2226,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
         <v>68</v>
@@ -2240,7 +2234,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
         <v>68</v>
@@ -2248,7 +2242,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
         <v>68</v>
@@ -2256,7 +2250,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
         <v>68</v>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121" t="s">
         <v>68</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
         <v>68</v>
@@ -2280,7 +2274,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -2288,7 +2282,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
         <v>68</v>
@@ -2296,7 +2290,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125" t="s">
         <v>68</v>
@@ -2304,7 +2298,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
         <v>68</v>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
         <v>68</v>
@@ -2320,7 +2314,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" t="s">
         <v>68</v>
@@ -2328,7 +2322,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
         <v>68</v>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="B130" t="s">
         <v>68</v>
@@ -2344,7 +2338,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
         <v>68</v>
@@ -2352,7 +2346,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" t="s">
         <v>68</v>
@@ -2360,7 +2354,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133" t="s">
         <v>68</v>
@@ -2368,7 +2362,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" t="s">
         <v>68</v>
@@ -2376,7 +2370,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
         <v>68</v>
@@ -2384,7 +2378,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
         <v>68</v>
@@ -2392,7 +2386,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
         <v>68</v>
@@ -2400,7 +2394,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
         <v>68</v>
@@ -2408,7 +2402,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
         <v>68</v>
@@ -2416,7 +2410,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
         <v>68</v>
@@ -2424,7 +2418,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
         <v>68</v>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B142" t="s">
         <v>68</v>
@@ -2440,7 +2434,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
         <v>68</v>
@@ -2448,7 +2442,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
         <v>68</v>
@@ -2456,7 +2450,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" t="s">
         <v>68</v>
@@ -2464,7 +2458,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" t="s">
         <v>68</v>
@@ -2472,7 +2466,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147" t="s">
         <v>68</v>
@@ -2480,7 +2474,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
         <v>68</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B149" t="s">
         <v>68</v>
@@ -2496,7 +2490,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s">
         <v>68</v>
@@ -2504,7 +2498,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
         <v>68</v>
@@ -2512,506 +2506,506 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B152" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" t="s">
-        <v>301</v>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B185" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B189" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B191" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B195" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B196" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B198" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B200" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B201" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B202" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B205" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B208" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B210" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B211" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B214" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B215" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,815 +3013,799 @@
         <v>312</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>316</v>
-      </c>
-      <c r="B218" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B222" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B223" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B235" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B236" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B245" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B246" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B248" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B252" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>240</v>
-      </c>
-      <c r="B260" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B264" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B268" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B269" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B270" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B272" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B273" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B275" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B276" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B277" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B278" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B279" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B280" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B281" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B282" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B283" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B284" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B288" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B289" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B290" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B292" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B293" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B294" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B304" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B305" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B307" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B309" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B310" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B311" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B312" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B313" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B314" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B315" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B316" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B317" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>297</v>
-      </c>
-      <c r="B318" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>298</v>
-      </c>
-      <c r="B319" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/named_entity_recognition/NER_dictionaries.xlsx
+++ b/named_entity_recognition/NER_dictionaries.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>vulnerability</t>
   </si>
@@ -229,6 +229,48 @@
     <t>Header manipulation</t>
   </si>
   <si>
+    <t>Shellshock</t>
+  </si>
+  <si>
+    <t>Server-Side Template Injection</t>
+  </si>
+  <si>
+    <t>SSTI</t>
+  </si>
+  <si>
+    <t>XXE</t>
+  </si>
+  <si>
+    <t>HTTP Desync Attack</t>
+  </si>
+  <si>
+    <t>Bypass strpos verification</t>
+  </si>
+  <si>
+    <t>Stored XSS</t>
+  </si>
+  <si>
+    <t>Regex bypass</t>
+  </si>
+  <si>
+    <t>Insecure AWS S3 Buckets</t>
+  </si>
+  <si>
+    <t>Blind SQL Injection</t>
+  </si>
+  <si>
+    <t>Java Deserialization</t>
+  </si>
+  <si>
+    <t>HTML Tag Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostcat </t>
+  </si>
+  <si>
+    <t>Code Injection</t>
+  </si>
+  <si>
     <t>Burp Suite</t>
   </si>
   <si>
@@ -307,6 +349,9 @@
     <t>Dirbuster</t>
   </si>
   <si>
+    <t>DIRB</t>
+  </si>
+  <si>
     <t>Gobuster</t>
   </si>
   <si>
@@ -436,538 +481,826 @@
     <t>Exploit framework</t>
   </si>
   <si>
+    <t>lxml</t>
+  </si>
+  <si>
+    <t>urllib3</t>
+  </si>
+  <si>
+    <t>mechanize</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>Subprocess.Popen</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Jinja</t>
+  </si>
+  <si>
+    <t>Jinja2</t>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+  </si>
+  <si>
+    <t>Graphql-voyager</t>
+  </si>
+  <si>
+    <t>Git-dumper</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>PCAP</t>
+  </si>
+  <si>
+    <t>JWT.io</t>
+  </si>
+  <si>
+    <t>S3Scanner</t>
+  </si>
+  <si>
+    <t>Ajp Shooter</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Login form</t>
+  </si>
+  <si>
+    <t>TARGET_COMPONENT</t>
+  </si>
+  <si>
+    <t>Registration form</t>
+  </si>
+  <si>
+    <t>Search form</t>
+  </si>
+  <si>
+    <t>Contact form</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Application Programming Interface</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>GraphQL API</t>
+  </si>
+  <si>
+    <t>JSON API</t>
+  </si>
+  <si>
+    <t>SOAP API</t>
+  </si>
+  <si>
+    <t>XML-RPC API</t>
+  </si>
+  <si>
+    <t>Uniform Resource Locator</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Endpoints</t>
+  </si>
+  <si>
+    <t>User input field</t>
+  </si>
+  <si>
+    <t>File upload</t>
+  </si>
+  <si>
+    <t>File download</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>SQL database</t>
+  </si>
+  <si>
+    <t>NoSQL database</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Application server</t>
+  </si>
+  <si>
+    <t>Mail server</t>
+  </si>
+  <si>
+    <t>DNS server</t>
+  </si>
+  <si>
+    <t>Reverse proxy</t>
+  </si>
+  <si>
+    <t>Content Management System</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Web application framework</t>
+  </si>
+  <si>
+    <t>JavaScript library</t>
+  </si>
+  <si>
+    <t>JavaScript framework</t>
+  </si>
+  <si>
+    <t>PHP script</t>
+  </si>
+  <si>
+    <t>HTML document</t>
+  </si>
+  <si>
+    <t>HTML page</t>
+  </si>
+  <si>
+    <t>CSS file</t>
+  </si>
+  <si>
+    <t>JavaScript file</t>
+  </si>
+  <si>
+    <t>Image file</t>
+  </si>
+  <si>
+    <t>Audio file</t>
+  </si>
+  <si>
+    <t>Video file</t>
+  </si>
+  <si>
+    <t>Web storage</t>
+  </si>
+  <si>
+    <t>Local storage</t>
+  </si>
+  <si>
+    <t>Session storage</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>HTTP header</t>
+  </si>
+  <si>
+    <t>User agent</t>
+  </si>
+  <si>
+    <t>Referrer</t>
+  </si>
+  <si>
+    <t>Domain name</t>
+  </si>
+  <si>
+    <t>Subdomain</t>
+  </si>
+  <si>
+    <t>SSL/TLS certificate</t>
+  </si>
+  <si>
+    <t>SSL certificate</t>
+  </si>
+  <si>
+    <t>TLS certificate</t>
+  </si>
+  <si>
+    <t>Encryption key</t>
+  </si>
+  <si>
+    <t>API key</t>
+  </si>
+  <si>
+    <t>OAuth token</t>
+  </si>
+  <si>
+    <t>CAPTCHA</t>
+  </si>
+  <si>
+    <t>WebSocket</t>
+  </si>
+  <si>
+    <t>Server configuration file</t>
+  </si>
+  <si>
+    <t>Flask module</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Accept-Language header</t>
+  </si>
+  <si>
+    <t>User-Agent header</t>
+  </si>
+  <si>
+    <t>Referer header</t>
+  </si>
+  <si>
+    <t>Host header</t>
+  </si>
+  <si>
+    <t>Content-Type header</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Webpage</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>CGI script</t>
+  </si>
+  <si>
+    <t>S3 Buckets</t>
+  </si>
+  <si>
+    <t>MDN Web Docs</t>
+  </si>
+  <si>
+    <t>LEARNING_RESOURCE</t>
+  </si>
+  <si>
+    <t>W3Schools</t>
+  </si>
+  <si>
+    <t>Open Web Application Security Project</t>
+  </si>
+  <si>
+    <t>OWASP</t>
+  </si>
+  <si>
+    <t>OWASP Top Ten</t>
+  </si>
+  <si>
+    <t>OWASP Cheat Sheets</t>
+  </si>
+  <si>
+    <t>StackOverflow</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub Gist</t>
+  </si>
+  <si>
+    <t>GitHub Repository</t>
+  </si>
+  <si>
+    <t>PortSwigger</t>
+  </si>
+  <si>
+    <t>PortSwigger Web Security Academy</t>
+  </si>
+  <si>
+    <t>HackerOne</t>
+  </si>
+  <si>
+    <t>HackerOne CTF Writeups</t>
+  </si>
+  <si>
+    <t>CTFtime</t>
+  </si>
+  <si>
+    <t>CTFtime Writeups</t>
+  </si>
+  <si>
+    <t>Google Developers</t>
+  </si>
+  <si>
+    <t>Microsoft Developer Network</t>
+  </si>
+  <si>
+    <t>MSDN</t>
+  </si>
+  <si>
+    <t>YouTube Tutorials</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Udacity</t>
+  </si>
+  <si>
+    <t>edX</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning</t>
+  </si>
+  <si>
+    <t>Codecademy</t>
+  </si>
+  <si>
+    <t>FreeCodeCamp</t>
+  </si>
+  <si>
+    <t>Medium Articles</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Infosec Blogs</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Technical Documentation</t>
+  </si>
+  <si>
+    <t>API Documentation</t>
+  </si>
+  <si>
+    <t>Whitepapers</t>
+  </si>
+  <si>
+    <t>Research Papers</t>
+  </si>
+  <si>
+    <t>Online Forum</t>
+  </si>
+  <si>
+    <t>IRC Channel</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Discord Channel</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Input sanitization</t>
+  </si>
+  <si>
+    <t>MITIGATION_STRATEGY</t>
+  </si>
+  <si>
+    <t>Input validation</t>
+  </si>
+  <si>
+    <t>Output escaping</t>
+  </si>
+  <si>
+    <t>Output encoding</t>
+  </si>
+  <si>
+    <t>Parameterized queries</t>
+  </si>
+  <si>
+    <t>Prepared statements</t>
+  </si>
+  <si>
+    <t>Stored procedures</t>
+  </si>
+  <si>
+    <t>Least privilege principle</t>
+  </si>
+  <si>
+    <t>Access control</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Multi-factor authentication</t>
+  </si>
+  <si>
+    <t>MFA</t>
+  </si>
+  <si>
+    <t>Password hashing</t>
+  </si>
+  <si>
+    <t>Password salting</t>
+  </si>
+  <si>
+    <t>Password policy</t>
+  </si>
+  <si>
+    <t>Session management</t>
+  </si>
+  <si>
+    <t>Secure cookies</t>
+  </si>
+  <si>
+    <t>Secure session storage</t>
+  </si>
+  <si>
+    <t>Hypertext Transfer Protocol Secure</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>Secure Sockets Layer</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>Transport Layer Security</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>SSL/TLS</t>
+  </si>
+  <si>
+    <t>Certificate pinning</t>
+  </si>
+  <si>
+    <t>Content Security Policy</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Same-origin policy</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>Cross-Origin Resource Sharing</t>
+  </si>
+  <si>
+    <t>X-Content-Type-Options header</t>
+  </si>
+  <si>
+    <t>X-Frame-Options header</t>
+  </si>
+  <si>
+    <t>X-XSS-Protection header</t>
+  </si>
+  <si>
+    <t>X-Content-Security-Policy header</t>
+  </si>
+  <si>
+    <t>Rate limiting</t>
+  </si>
+  <si>
+    <t>Web Application Firewall</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>Intrusion Detection System</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>Intrusion Prevention System</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>Security Information and Event Management</t>
+  </si>
+  <si>
+    <t>SIEM</t>
+  </si>
+  <si>
+    <t>Logging and monitoring</t>
+  </si>
+  <si>
+    <t>Security audits</t>
+  </si>
+  <si>
+    <t>Vulnerability scanning</t>
+  </si>
+  <si>
+    <t>Penetration testing</t>
+  </si>
+  <si>
+    <t>Security training</t>
+  </si>
+  <si>
+    <t>Patch management</t>
+  </si>
+  <si>
+    <t>Regular software updates</t>
+  </si>
+  <si>
+    <t>Backup and recovery</t>
+  </si>
+  <si>
+    <t>Incident response plan</t>
+  </si>
+  <si>
+    <t>Secure development lifecycle</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>Security by design</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>CVE-2023</t>
+  </si>
+  <si>
+    <t>COMMON_VULNERABILITIES_AND_EXPOSURES</t>
+  </si>
+  <si>
+    <t>CVE-2022</t>
+  </si>
+  <si>
+    <t>CVE-2021</t>
+  </si>
+  <si>
+    <t>CVE-2020</t>
+  </si>
+  <si>
+    <t>CVE-2019</t>
+  </si>
+  <si>
+    <t>CVE-2018</t>
+  </si>
+  <si>
+    <t>CVE-2017</t>
+  </si>
+  <si>
+    <t>CVE-2016</t>
+  </si>
+  <si>
+    <t>CVE-2015</t>
+  </si>
+  <si>
+    <t>CVE-2014</t>
+  </si>
+  <si>
+    <t>CVE-2013</t>
+  </si>
+  <si>
+    <t>CVE-2012</t>
+  </si>
+  <si>
+    <t>CVE-2011</t>
+  </si>
+  <si>
+    <t>CVE-2010</t>
+  </si>
+  <si>
+    <t>CVE-2009</t>
+  </si>
+  <si>
+    <t>CVE-2008</t>
+  </si>
+  <si>
+    <t>CVE-2007</t>
+  </si>
+  <si>
+    <t>CVE-2006</t>
+  </si>
+  <si>
+    <t>CVE-2005</t>
+  </si>
+  <si>
+    <t>CVE-2004</t>
+  </si>
+  <si>
+    <t>CVE-2003</t>
+  </si>
+  <si>
+    <t>CVE-2002</t>
+  </si>
+  <si>
+    <t>CVE-2001</t>
+  </si>
+  <si>
+    <t>CVE-2000</t>
+  </si>
+  <si>
+    <t>CVE-1999</t>
+  </si>
+  <si>
     <t>requests</t>
   </si>
   <si>
-    <t>beautifulsoup</t>
-  </si>
-  <si>
-    <t>beautifulsoup4</t>
-  </si>
-  <si>
-    <t>lxml</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>urllib3</t>
+    <t>PYTHON_LIBRARY</t>
+  </si>
+  <si>
+    <t>Beautiful Soup</t>
+  </si>
+  <si>
+    <t>Beautifulsoup</t>
+  </si>
+  <si>
+    <t>Beautifulsoup4</t>
+  </si>
+  <si>
+    <t>Scrapy</t>
+  </si>
+  <si>
+    <t>PyQuery</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>FastAPI</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>CherryPy</t>
+  </si>
+  <si>
+    <t>PyJWT</t>
+  </si>
+  <si>
+    <t>Paramiko</t>
+  </si>
+  <si>
+    <t>scrapy-splash</t>
   </si>
   <si>
     <t>httplib2</t>
   </si>
   <si>
-    <t>mechanize</t>
-  </si>
-  <si>
-    <t>scrapy</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t>grep</t>
-  </si>
-  <si>
-    <t>Subprocess.Popen</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Login form</t>
-  </si>
-  <si>
-    <t>TARGET_COMPONENT</t>
-  </si>
-  <si>
-    <t>Registration form</t>
-  </si>
-  <si>
-    <t>Search form</t>
-  </si>
-  <si>
-    <t>Contact form</t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Application Programming Interface</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>REST API</t>
-  </si>
-  <si>
-    <t>GraphQL API</t>
-  </si>
-  <si>
-    <t>JSON API</t>
-  </si>
-  <si>
-    <t>SOAP API</t>
-  </si>
-  <si>
-    <t>XML-RPC API</t>
-  </si>
-  <si>
-    <t>Uniform Resource Locator</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>User input field</t>
-  </si>
-  <si>
-    <t>File upload</t>
-  </si>
-  <si>
-    <t>File download</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>SQL database</t>
-  </si>
-  <si>
-    <t>NoSQL database</t>
-  </si>
-  <si>
-    <t>Web server</t>
-  </si>
-  <si>
-    <t>Application server</t>
-  </si>
-  <si>
-    <t>Mail server</t>
-  </si>
-  <si>
-    <t>DNS server</t>
-  </si>
-  <si>
-    <t>Reverse proxy</t>
-  </si>
-  <si>
-    <t>Content Management System</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>Web application framework</t>
-  </si>
-  <si>
-    <t>JavaScript library</t>
-  </si>
-  <si>
-    <t>JavaScript framework</t>
-  </si>
-  <si>
-    <t>PHP script</t>
-  </si>
-  <si>
-    <t>HTML document</t>
-  </si>
-  <si>
-    <t>CSS file</t>
-  </si>
-  <si>
-    <t>JavaScript file</t>
-  </si>
-  <si>
-    <t>Image file</t>
-  </si>
-  <si>
-    <t>Audio file</t>
-  </si>
-  <si>
-    <t>Video file</t>
-  </si>
-  <si>
-    <t>Web storage</t>
-  </si>
-  <si>
-    <t>Local storage</t>
-  </si>
-  <si>
-    <t>Session storage</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>HTTP header</t>
-  </si>
-  <si>
-    <t>User agent</t>
-  </si>
-  <si>
-    <t>Referrer</t>
-  </si>
-  <si>
-    <t>Domain name</t>
-  </si>
-  <si>
-    <t>Subdomain</t>
-  </si>
-  <si>
-    <t>SSL/TLS certificate</t>
-  </si>
-  <si>
-    <t>SSL certificate</t>
-  </si>
-  <si>
-    <t>TLS certificate</t>
-  </si>
-  <si>
-    <t>Encryption key</t>
-  </si>
-  <si>
-    <t>API key</t>
-  </si>
-  <si>
-    <t>OAuth token</t>
-  </si>
-  <si>
-    <t>CAPTCHA</t>
-  </si>
-  <si>
-    <t>WebSocket</t>
-  </si>
-  <si>
-    <t>Server configuration file</t>
-  </si>
-  <si>
-    <t>Flask module</t>
-  </si>
-  <si>
-    <t>Redis</t>
-  </si>
-  <si>
-    <t>Accept-Language header</t>
-  </si>
-  <si>
-    <t>User-Agent header</t>
-  </si>
-  <si>
-    <t>Referer header</t>
-  </si>
-  <si>
-    <t>Host header</t>
-  </si>
-  <si>
-    <t>Content-Type header</t>
-  </si>
-  <si>
-    <t>MDN Web Docs</t>
-  </si>
-  <si>
-    <t>LEARNING_RESOURCE</t>
-  </si>
-  <si>
-    <t>W3Schools</t>
-  </si>
-  <si>
-    <t>Open Web Application Security Project</t>
-  </si>
-  <si>
-    <t>OWASP</t>
-  </si>
-  <si>
-    <t>OWASP Top Ten</t>
-  </si>
-  <si>
-    <t>OWASP Cheat Sheets</t>
-  </si>
-  <si>
-    <t>StackOverflow</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>GitHub Gist</t>
-  </si>
-  <si>
-    <t>GitHub Repository</t>
-  </si>
-  <si>
-    <t>PortSwigger</t>
-  </si>
-  <si>
-    <t>PortSwigger Web Security Academy</t>
-  </si>
-  <si>
-    <t>HackerOne</t>
-  </si>
-  <si>
-    <t>HackerOne CTF Writeups</t>
-  </si>
-  <si>
-    <t>CTFtime</t>
-  </si>
-  <si>
-    <t>CTFtime Writeups</t>
-  </si>
-  <si>
-    <t>Google Developers</t>
-  </si>
-  <si>
-    <t>Microsoft Developer Network</t>
-  </si>
-  <si>
-    <t>MSDN</t>
-  </si>
-  <si>
-    <t>YouTube Tutorials</t>
-  </si>
-  <si>
-    <t>Pluralsight</t>
-  </si>
-  <si>
-    <t>Coursera</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>Udacity</t>
-  </si>
-  <si>
-    <t>edX</t>
-  </si>
-  <si>
-    <t>LinkedIn Learning</t>
-  </si>
-  <si>
-    <t>Codecademy</t>
-  </si>
-  <si>
-    <t>FreeCodeCamp</t>
-  </si>
-  <si>
-    <t>Medium Articles</t>
-  </si>
-  <si>
-    <t>Infosec Blogs</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Technical Documentation</t>
-  </si>
-  <si>
-    <t>API Documentation</t>
-  </si>
-  <si>
-    <t>Whitepapers</t>
-  </si>
-  <si>
-    <t>Research Papers</t>
-  </si>
-  <si>
-    <t>Online Forum</t>
-  </si>
-  <si>
-    <t>IRC Channel</t>
-  </si>
-  <si>
-    <t>Discord</t>
-  </si>
-  <si>
-    <t>Discord Channel</t>
-  </si>
-  <si>
-    <t>Wikipedia</t>
-  </si>
-  <si>
-    <t>Input sanitization</t>
-  </si>
-  <si>
-    <t>MITIGATION_STRATEGY</t>
-  </si>
-  <si>
-    <t>Input validation</t>
-  </si>
-  <si>
-    <t>Output escaping</t>
-  </si>
-  <si>
-    <t>Output encoding</t>
-  </si>
-  <si>
-    <t>Parameterized queries</t>
-  </si>
-  <si>
-    <t>Prepared statements</t>
-  </si>
-  <si>
-    <t>Stored procedures</t>
-  </si>
-  <si>
-    <t>Least privilege principle</t>
-  </si>
-  <si>
-    <t>Access control</t>
-  </si>
-  <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>Multi-factor authentication</t>
-  </si>
-  <si>
-    <t>MFA</t>
-  </si>
-  <si>
-    <t>Password hashing</t>
-  </si>
-  <si>
-    <t>Password salting</t>
-  </si>
-  <si>
-    <t>Password policy</t>
-  </si>
-  <si>
-    <t>Session management</t>
-  </si>
-  <si>
-    <t>Secure cookies</t>
-  </si>
-  <si>
-    <t>Secure session storage</t>
-  </si>
-  <si>
-    <t>Hypertext Transfer Protocol Secure</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
-  </si>
-  <si>
-    <t>Secure Sockets Layer</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>Transport Layer Security</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>SSL/TLS</t>
-  </si>
-  <si>
-    <t>Certificate pinning</t>
-  </si>
-  <si>
-    <t>Content Security Policy</t>
-  </si>
-  <si>
-    <t>CSP</t>
-  </si>
-  <si>
-    <t>Same-origin policy</t>
-  </si>
-  <si>
-    <t>CORS</t>
-  </si>
-  <si>
-    <t>Cross-Origin Resource Sharing</t>
-  </si>
-  <si>
-    <t>X-Content-Type-Options header</t>
-  </si>
-  <si>
-    <t>X-Frame-Options header</t>
-  </si>
-  <si>
-    <t>X-XSS-Protection header</t>
-  </si>
-  <si>
-    <t>X-Content-Security-Policy header</t>
-  </si>
-  <si>
-    <t>Rate limiting</t>
-  </si>
-  <si>
-    <t>Web Application Firewall</t>
-  </si>
-  <si>
-    <t>WAF</t>
-  </si>
-  <si>
-    <t>Intrusion Detection System</t>
-  </si>
-  <si>
-    <t>IDS</t>
-  </si>
-  <si>
-    <t>Intrusion Prevention System</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>Security Information and Event Management</t>
-  </si>
-  <si>
-    <t>SIEM</t>
-  </si>
-  <si>
-    <t>Logging and monitoring</t>
-  </si>
-  <si>
-    <t>Security audits</t>
-  </si>
-  <si>
-    <t>Vulnerability scanning</t>
-  </si>
-  <si>
-    <t>Penetration testing</t>
-  </si>
-  <si>
-    <t>Security training</t>
-  </si>
-  <si>
-    <t>Patch management</t>
-  </si>
-  <si>
-    <t>Regular software updates</t>
-  </si>
-  <si>
-    <t>Backup and recovery</t>
-  </si>
-  <si>
-    <t>Incident response plan</t>
-  </si>
-  <si>
-    <t>Secure development lifecycle</t>
-  </si>
-  <si>
-    <t>SDLC</t>
-  </si>
-  <si>
-    <t>Security by design</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>FLAG</t>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT_LIBRARY</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Express.js</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Vue.js</t>
+  </si>
+  <si>
+    <t>AngularJS</t>
+  </si>
+  <si>
+    <t>Knockout.js</t>
+  </si>
+  <si>
+    <t>D3.js</t>
+  </si>
+  <si>
+    <t>Highcharts</t>
+  </si>
+  <si>
+    <t>Chart.js</t>
+  </si>
+  <si>
+    <t>Three.js</t>
+  </si>
+  <si>
+    <t>PhantomJS</t>
+  </si>
+  <si>
+    <t>Puppeteer</t>
+  </si>
+  <si>
+    <t>Popper.js</t>
+  </si>
+  <si>
+    <t>Lodash</t>
+  </si>
+  <si>
+    <t>HTTP GET</t>
+  </si>
+  <si>
+    <t>HTTP_METHOD</t>
+  </si>
+  <si>
+    <t>HTTP POST</t>
+  </si>
+  <si>
+    <t>HTTP PUT</t>
+  </si>
+  <si>
+    <t>HTTP DELETE</t>
+  </si>
+  <si>
+    <t>HTTP HEAD</t>
+  </si>
+  <si>
+    <t>HTTP OPTIONS</t>
+  </si>
+  <si>
+    <t>HTTP CONNECT</t>
+  </si>
+  <si>
+    <t>HTTP TRACE</t>
+  </si>
+  <si>
+    <t>HTTP PATCH</t>
+  </si>
+  <si>
+    <t>HTTP 200</t>
+  </si>
+  <si>
+    <t>HTTP_CODE</t>
+  </si>
+  <si>
+    <t>HTTP 201</t>
+  </si>
+  <si>
+    <t>HTTP 204</t>
+  </si>
+  <si>
+    <t>HTTP 400</t>
+  </si>
+  <si>
+    <t>HTTP 401</t>
+  </si>
+  <si>
+    <t>HTTP 403</t>
+  </si>
+  <si>
+    <t>HTTP 404</t>
+  </si>
+  <si>
+    <t>HTTP 405</t>
+  </si>
+  <si>
+    <t>HTTP 500</t>
+  </si>
+  <si>
+    <t>HTTP 503</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -993,13 +1326,29 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="11"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1012,16 +1361,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,18 +1380,24 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +1416,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffd1d4da"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1260,17 +1617,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1298,10 +1655,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1549,12 +1906,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1841,7 +2198,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1869,10 +2226,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2123,15 +2480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:B436"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.1719" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1094" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2141,9 +2498,6 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2152,9 +2506,6 @@
       <c r="B2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -2163,9 +2514,6 @@
       <c r="B3" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -2174,9 +2522,6 @@
       <c r="B4" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -2185,9 +2530,6 @@
       <c r="B5" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -2196,9 +2538,6 @@
       <c r="B6" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -2207,9 +2546,6 @@
       <c r="B7" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -2218,9 +2554,6 @@
       <c r="B8" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
@@ -2229,9 +2562,6 @@
       <c r="B9" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
@@ -2240,9 +2570,6 @@
       <c r="B10" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
@@ -2251,9 +2578,6 @@
       <c r="B11" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
@@ -2262,9 +2586,6 @@
       <c r="B12" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="2">
@@ -2273,9 +2594,6 @@
       <c r="B13" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
@@ -2284,9 +2602,6 @@
       <c r="B14" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
@@ -2295,9 +2610,6 @@
       <c r="B15" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="2">
@@ -2306,9 +2618,6 @@
       <c r="B16" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="2">
@@ -2317,9 +2626,6 @@
       <c r="B17" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="2">
@@ -2328,9 +2634,6 @@
       <c r="B18" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="2">
@@ -2339,9 +2642,6 @@
       <c r="B19" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="2">
@@ -2350,9 +2650,6 @@
       <c r="B20" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="2">
@@ -2361,9 +2658,6 @@
       <c r="B21" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="2">
@@ -2372,9 +2666,6 @@
       <c r="B22" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="2">
@@ -2383,9 +2674,6 @@
       <c r="B23" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="2">
@@ -2394,9 +2682,6 @@
       <c r="B24" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="2">
@@ -2405,9 +2690,6 @@
       <c r="B25" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="2">
@@ -2416,9 +2698,6 @@
       <c r="B26" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="2">
@@ -2427,9 +2706,6 @@
       <c r="B27" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="2">
@@ -2438,9 +2714,6 @@
       <c r="B28" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="2">
@@ -2449,9 +2722,6 @@
       <c r="B29" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="2">
@@ -2460,9 +2730,6 @@
       <c r="B30" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="2">
@@ -2471,9 +2738,6 @@
       <c r="B31" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="2">
@@ -2482,9 +2746,6 @@
       <c r="B32" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="2">
@@ -2493,9 +2754,6 @@
       <c r="B33" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="2">
@@ -2504,9 +2762,6 @@
       <c r="B34" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="2">
@@ -2515,9 +2770,6 @@
       <c r="B35" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="2">
@@ -2526,9 +2778,6 @@
       <c r="B36" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="2">
@@ -2537,9 +2786,6 @@
       <c r="B37" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="2">
@@ -2548,9 +2794,6 @@
       <c r="B38" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="2">
@@ -2559,9 +2802,6 @@
       <c r="B39" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="2">
@@ -2570,9 +2810,6 @@
       <c r="B40" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="2">
@@ -2581,9 +2818,6 @@
       <c r="B41" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="2">
@@ -2592,9 +2826,6 @@
       <c r="B42" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="2">
@@ -2603,9 +2834,6 @@
       <c r="B43" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="2">
@@ -2614,9 +2842,6 @@
       <c r="B44" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="2">
@@ -2625,9 +2850,6 @@
       <c r="B45" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="2">
@@ -2636,9 +2858,6 @@
       <c r="B46" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="2">
@@ -2647,9 +2866,6 @@
       <c r="B47" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="2">
@@ -2658,9 +2874,6 @@
       <c r="B48" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="2">
@@ -2669,9 +2882,6 @@
       <c r="B49" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="2">
@@ -2680,9 +2890,6 @@
       <c r="B50" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="2">
@@ -2691,9 +2898,6 @@
       <c r="B51" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="2">
@@ -2702,9 +2906,6 @@
       <c r="B52" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="2">
@@ -2713,9 +2914,6 @@
       <c r="B53" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="2">
@@ -2724,9 +2922,6 @@
       <c r="B54" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="2">
@@ -2735,9 +2930,6 @@
       <c r="B55" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="2">
@@ -2746,9 +2938,6 @@
       <c r="B56" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="2">
@@ -2757,9 +2946,6 @@
       <c r="B57" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="2">
@@ -2768,9 +2954,6 @@
       <c r="B58" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="2">
@@ -2779,9 +2962,6 @@
       <c r="B59" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" t="s" s="2">
@@ -2790,9 +2970,6 @@
       <c r="B60" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="2">
@@ -2801,9 +2978,6 @@
       <c r="B61" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
     </row>
     <row r="62" ht="13.55" customHeight="1">
       <c r="A62" t="s" s="2">
@@ -2812,9 +2986,6 @@
       <c r="B62" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="2">
@@ -2823,9 +2994,6 @@
       <c r="B63" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="2">
@@ -2834,9 +3002,6 @@
       <c r="B64" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="2">
@@ -2845,9 +3010,6 @@
       <c r="B65" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" t="s" s="2">
@@ -2856,9 +3018,6 @@
       <c r="B66" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" t="s" s="2">
@@ -2867,9 +3026,6 @@
       <c r="B67" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="2">
@@ -2878,9 +3034,6 @@
       <c r="B68" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" t="s" s="2">
@@ -2889,9 +3042,6 @@
       <c r="B69" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="2">
@@ -2900,9 +3050,6 @@
       <c r="B70" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" t="s" s="2">
@@ -2911,2722 +3058,2868 @@
       <c r="B71" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="A72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="76" ht="13.55" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="77" ht="13.55" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="78" ht="13.55" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="79" ht="13.55" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="81" ht="13.55" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="82" ht="13.55" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="83" ht="13.55" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="84" ht="13.55" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" ht="13.55" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="90" ht="13.55" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="93" ht="13.55" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="104" ht="13.55" customHeight="1">
       <c r="A104" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
       <c r="A105" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="107" ht="13.55" customHeight="1">
       <c r="A107" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" ht="13.55" customHeight="1">
+      <c r="A154" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="B153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" ht="13.55" customHeight="1">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="B154" t="s" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="2">
         <v>154</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="175" ht="13.55" customHeight="1">
-      <c r="A175" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="183" ht="13.55" customHeight="1">
       <c r="A183" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="184" ht="13.55" customHeight="1">
       <c r="A184" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="185" ht="13.55" customHeight="1">
       <c r="A185" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="186" ht="13.55" customHeight="1">
       <c r="A186" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="187" ht="13.55" customHeight="1">
       <c r="A187" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="188" ht="13.55" customHeight="1">
       <c r="A188" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="189" ht="13.55" customHeight="1">
       <c r="A189" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="190" ht="13.55" customHeight="1">
       <c r="A190" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="191" ht="13.55" customHeight="1">
       <c r="A191" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="192" ht="13.55" customHeight="1">
       <c r="A192" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="193" ht="13.55" customHeight="1">
       <c r="A193" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="194" ht="13.55" customHeight="1">
       <c r="A194" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="195" ht="13.55" customHeight="1">
       <c r="A195" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="196" ht="13.55" customHeight="1">
       <c r="A196" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="197" ht="13.55" customHeight="1">
       <c r="A197" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="198" ht="13.55" customHeight="1">
       <c r="A198" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="199" ht="13.55" customHeight="1">
       <c r="A199" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="200" ht="13.55" customHeight="1">
       <c r="A200" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="201" ht="13.55" customHeight="1">
       <c r="A201" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="202" ht="13.55" customHeight="1">
       <c r="A202" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="203" ht="13.55" customHeight="1">
       <c r="A203" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="204" ht="13.55" customHeight="1">
       <c r="A204" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="205" ht="13.55" customHeight="1">
       <c r="A205" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="206" ht="13.55" customHeight="1">
       <c r="A206" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="207" ht="13.55" customHeight="1">
       <c r="A207" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="208" ht="13.55" customHeight="1">
       <c r="A208" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="209" ht="13.55" customHeight="1">
       <c r="A209" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="210" ht="13.55" customHeight="1">
       <c r="A210" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="211" ht="13.55" customHeight="1">
       <c r="A211" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="212" ht="13.55" customHeight="1">
       <c r="A212" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="213" ht="13.55" customHeight="1">
       <c r="A213" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="214" ht="13.55" customHeight="1">
       <c r="A214" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="215" ht="13.55" customHeight="1">
       <c r="A215" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="216" ht="13.55" customHeight="1">
       <c r="A216" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="217" ht="13.55" customHeight="1">
       <c r="A217" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" ht="13.55" customHeight="1">
+      <c r="A218" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B217" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" ht="13.55" customHeight="1">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
+      <c r="B218" t="s" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="219" ht="13.55" customHeight="1">
       <c r="A219" t="s" s="2">
         <v>218</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="220" ht="13.55" customHeight="1">
       <c r="A220" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="221" ht="13.55" customHeight="1">
       <c r="A221" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="222" ht="13.55" customHeight="1">
       <c r="A222" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="223" ht="13.55" customHeight="1">
       <c r="A223" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="224" ht="13.55" customHeight="1">
       <c r="A224" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="225" ht="13.55" customHeight="1">
       <c r="A225" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="226" ht="13.55" customHeight="1">
       <c r="A226" t="s" s="2">
         <v>225</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="227" ht="13.55" customHeight="1">
       <c r="A227" t="s" s="2">
         <v>226</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="228" ht="13.55" customHeight="1">
       <c r="A228" t="s" s="2">
         <v>227</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="229" ht="13.55" customHeight="1">
       <c r="A229" t="s" s="2">
         <v>228</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="230" ht="13.55" customHeight="1">
       <c r="A230" t="s" s="2">
         <v>229</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="231" ht="13.55" customHeight="1">
       <c r="A231" t="s" s="2">
         <v>230</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="232" ht="13.55" customHeight="1">
       <c r="A232" t="s" s="2">
         <v>231</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="233" ht="13.55" customHeight="1">
       <c r="A233" t="s" s="2">
         <v>232</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="234" ht="13.55" customHeight="1">
       <c r="A234" t="s" s="2">
         <v>233</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="235" ht="13.55" customHeight="1">
       <c r="A235" t="s" s="2">
         <v>234</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="236" ht="13.55" customHeight="1">
       <c r="A236" t="s" s="2">
         <v>235</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="237" ht="13.55" customHeight="1">
       <c r="A237" t="s" s="2">
         <v>236</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="238" ht="13.55" customHeight="1">
       <c r="A238" t="s" s="2">
         <v>237</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="239" ht="13.55" customHeight="1">
       <c r="A239" t="s" s="2">
         <v>238</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="240" ht="13.55" customHeight="1">
       <c r="A240" t="s" s="2">
         <v>239</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="241" ht="13.55" customHeight="1">
       <c r="A241" t="s" s="2">
         <v>240</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="242" ht="13.55" customHeight="1">
       <c r="A242" t="s" s="2">
         <v>241</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="243" ht="13.55" customHeight="1">
       <c r="A243" t="s" s="2">
         <v>242</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="244" ht="13.55" customHeight="1">
       <c r="A244" t="s" s="2">
         <v>243</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="245" ht="13.55" customHeight="1">
       <c r="A245" t="s" s="2">
         <v>244</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="246" ht="13.55" customHeight="1">
       <c r="A246" t="s" s="2">
         <v>245</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="247" ht="13.55" customHeight="1">
       <c r="A247" t="s" s="2">
         <v>246</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="248" ht="13.55" customHeight="1">
-      <c r="A248" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" ht="13.55" customHeight="1">
       <c r="A249" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="B249" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
     </row>
     <row r="250" ht="13.55" customHeight="1">
       <c r="A250" t="s" s="2">
         <v>249</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="251" ht="13.55" customHeight="1">
       <c r="A251" t="s" s="2">
         <v>250</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="252" ht="13.55" customHeight="1">
       <c r="A252" t="s" s="2">
         <v>251</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="253" ht="13.55" customHeight="1">
       <c r="A253" t="s" s="2">
         <v>252</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="254" ht="13.55" customHeight="1">
       <c r="A254" t="s" s="2">
         <v>253</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="255" ht="13.55" customHeight="1">
       <c r="A255" t="s" s="2">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="256" ht="13.55" customHeight="1">
       <c r="A256" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="257" ht="13.55" customHeight="1">
       <c r="A257" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="258" ht="13.55" customHeight="1">
       <c r="A258" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="259" ht="13.55" customHeight="1">
       <c r="A259" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" ht="13.55" customHeight="1">
+      <c r="A260" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="B259" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-    </row>
-    <row r="260" ht="13.55" customHeight="1">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="B260" t="s" s="2">
+        <v>248</v>
+      </c>
     </row>
     <row r="261" ht="13.55" customHeight="1">
       <c r="A261" t="s" s="2">
         <v>259</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="262" ht="13.55" customHeight="1">
       <c r="A262" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="263" ht="13.55" customHeight="1">
       <c r="A263" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="264" ht="13.55" customHeight="1">
       <c r="A264" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="265" ht="13.55" customHeight="1">
       <c r="A265" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="266" ht="13.55" customHeight="1">
       <c r="A266" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="267" ht="13.55" customHeight="1">
       <c r="A267" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="268" ht="13.55" customHeight="1">
       <c r="A268" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="269" ht="13.55" customHeight="1">
       <c r="A269" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="270" ht="13.55" customHeight="1">
       <c r="A270" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="271" ht="13.55" customHeight="1">
       <c r="A271" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="272" ht="13.55" customHeight="1">
       <c r="A272" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="273" ht="13.55" customHeight="1">
       <c r="A273" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="274" ht="13.55" customHeight="1">
       <c r="A274" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="275" ht="13.55" customHeight="1">
       <c r="A275" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="276" ht="13.55" customHeight="1">
       <c r="A276" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="277" ht="13.55" customHeight="1">
       <c r="A277" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="278" ht="13.55" customHeight="1">
       <c r="A278" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="279" ht="13.55" customHeight="1">
       <c r="A279" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="280" ht="13.55" customHeight="1">
       <c r="A280" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="281" ht="13.55" customHeight="1">
       <c r="A281" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="282" ht="13.55" customHeight="1">
       <c r="A282" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="283" ht="13.55" customHeight="1">
       <c r="A283" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="284" ht="13.55" customHeight="1">
       <c r="A284" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="285" ht="13.55" customHeight="1">
       <c r="A285" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="286" ht="13.55" customHeight="1">
       <c r="A286" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="287" ht="13.55" customHeight="1">
       <c r="A287" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="288" ht="13.55" customHeight="1">
       <c r="A288" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="289" ht="13.55" customHeight="1">
       <c r="A289" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="290" ht="13.55" customHeight="1">
       <c r="A290" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="291" ht="13.55" customHeight="1">
-      <c r="A291" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
     </row>
     <row r="292" ht="13.55" customHeight="1">
       <c r="A292" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="293" ht="13.55" customHeight="1">
       <c r="A293" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="294" ht="13.55" customHeight="1">
       <c r="A294" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="295" ht="13.55" customHeight="1">
       <c r="A295" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="296" ht="13.55" customHeight="1">
       <c r="A296" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="297" ht="13.55" customHeight="1">
       <c r="A297" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="298" ht="13.55" customHeight="1">
       <c r="A298" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="299" ht="13.55" customHeight="1">
       <c r="A299" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="300" ht="13.55" customHeight="1">
       <c r="A300" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="301" ht="13.55" customHeight="1">
       <c r="A301" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="302" ht="13.55" customHeight="1">
       <c r="A302" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="303" ht="13.55" customHeight="1">
       <c r="A303" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="304" ht="13.55" customHeight="1">
       <c r="A304" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="305" ht="13.55" customHeight="1">
       <c r="A305" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="306" ht="13.55" customHeight="1">
       <c r="A306" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="307" ht="13.55" customHeight="1">
       <c r="A307" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="308" ht="13.55" customHeight="1">
       <c r="A308" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="309" ht="13.55" customHeight="1">
       <c r="A309" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="310" ht="13.55" customHeight="1">
       <c r="A310" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="311" ht="13.55" customHeight="1">
       <c r="A311" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="312" ht="13.55" customHeight="1">
       <c r="A312" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="313" ht="13.55" customHeight="1">
       <c r="A313" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="314" ht="13.55" customHeight="1">
       <c r="A314" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="315" ht="13.55" customHeight="1">
       <c r="A315" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="316" ht="13.55" customHeight="1">
       <c r="A316" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="317" ht="13.55" customHeight="1">
       <c r="A317" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="318" ht="13.55" customHeight="1">
+      <c r="A318" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="B317" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-    </row>
-    <row r="318" ht="13.55" customHeight="1">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
+      <c r="B318" t="s" s="2">
+        <v>290</v>
+      </c>
     </row>
     <row r="319" ht="13.55" customHeight="1">
       <c r="A319" t="s" s="2">
         <v>317</v>
       </c>
       <c r="B319" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="320" ht="13.55" customHeight="1">
+      <c r="A320" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
+      <c r="B320" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="321" ht="13.55" customHeight="1">
+      <c r="A321" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="322" ht="13.55" customHeight="1">
+      <c r="A322" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="323" ht="13.55" customHeight="1">
+      <c r="A323" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="324" ht="13.55" customHeight="1">
+      <c r="A324" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="325" ht="13.55" customHeight="1">
+      <c r="A325" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="326" ht="13.55" customHeight="1">
+      <c r="A326" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="327" ht="13.55" customHeight="1">
+      <c r="A327" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="328" ht="13.55" customHeight="1">
+      <c r="A328" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="329" ht="13.55" customHeight="1">
+      <c r="A329" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="330" ht="13.55" customHeight="1">
+      <c r="A330" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="331" ht="13.55" customHeight="1">
+      <c r="A331" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="332" ht="13.55" customHeight="1">
+      <c r="A332" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="333" ht="13.55" customHeight="1">
+      <c r="A333" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="334" ht="13.55" customHeight="1">
+      <c r="A334" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="335" ht="13.55" customHeight="1">
+      <c r="A335" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="336" ht="13.55" customHeight="1">
+      <c r="A336" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="337" ht="13.55" customHeight="1">
+      <c r="A337" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="338" ht="13.55" customHeight="1">
+      <c r="A338" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="339" ht="13.55" customHeight="1">
+      <c r="A339" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="340" ht="13.55" customHeight="1">
+      <c r="A340" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="341" ht="13.55" customHeight="1">
+      <c r="A341" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="342" ht="13.55" customHeight="1">
+      <c r="A342" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="343" ht="13.55" customHeight="1">
+      <c r="A343" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="344" ht="13.55" customHeight="1">
+      <c r="A344" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="345" ht="13.55" customHeight="1">
+      <c r="A345" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="346" ht="13.55" customHeight="1">
+      <c r="A346" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="347" ht="13.55" customHeight="1">
+      <c r="A347" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="348" ht="13.55" customHeight="1">
+      <c r="A348" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="349" ht="13.55" customHeight="1">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" ht="13.55" customHeight="1">
+      <c r="A350" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" ht="13.55" customHeight="1">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" ht="13.55" customHeight="1">
+      <c r="A352" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" ht="13.55" customHeight="1">
+      <c r="A353" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" ht="13.55" customHeight="1">
+      <c r="A354" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="355" ht="13.55" customHeight="1">
+      <c r="A355" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356" ht="13.55" customHeight="1">
+      <c r="A356" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" ht="13.55" customHeight="1">
+      <c r="A357" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="358" ht="13.55" customHeight="1">
+      <c r="A358" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="359" ht="13.55" customHeight="1">
+      <c r="A359" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="360" ht="13.55" customHeight="1">
+      <c r="A360" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="361" ht="13.55" customHeight="1">
+      <c r="A361" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="362" ht="13.55" customHeight="1">
+      <c r="A362" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="363" ht="13.55" customHeight="1">
+      <c r="A363" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="364" ht="13.55" customHeight="1">
+      <c r="A364" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="365" ht="13.55" customHeight="1">
+      <c r="A365" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="366" ht="13.55" customHeight="1">
+      <c r="A366" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="367" ht="13.55" customHeight="1">
+      <c r="A367" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="368" ht="13.55" customHeight="1">
+      <c r="A368" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="369" ht="13.55" customHeight="1">
+      <c r="A369" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="370" ht="13.55" customHeight="1">
+      <c r="A370" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="371" ht="13.55" customHeight="1">
+      <c r="A371" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="372" ht="13.55" customHeight="1">
+      <c r="A372" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="373" ht="13.55" customHeight="1">
+      <c r="A373" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="374" ht="13.55" customHeight="1">
+      <c r="A374" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="375" ht="13.55" customHeight="1">
+      <c r="A375" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="376" ht="13.55" customHeight="1">
+      <c r="A376" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="377" ht="13.55" customHeight="1">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" ht="13.55" customHeight="1">
+      <c r="A378" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" ht="13.55" customHeight="1">
+      <c r="A379" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" ht="13.55" customHeight="1">
+      <c r="A380" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" ht="13.55" customHeight="1">
+      <c r="A381" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" ht="13.55" customHeight="1">
+      <c r="A382" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" ht="13.55" customHeight="1">
+      <c r="A383" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="384" ht="13.55" customHeight="1">
+      <c r="A384" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="385" ht="13.55" customHeight="1">
+      <c r="A385" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" ht="13.55" customHeight="1">
+      <c r="A386" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="387" ht="13.55" customHeight="1">
+      <c r="A387" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="388" ht="13.55" customHeight="1">
+      <c r="A388" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="389" ht="13.55" customHeight="1">
+      <c r="A389" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="390" ht="13.55" customHeight="1">
+      <c r="A390" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="391" ht="13.55" customHeight="1">
+      <c r="A391" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="392" ht="13.55" customHeight="1">
+      <c r="A392" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="393" ht="13.55" customHeight="1">
+      <c r="A393" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="394" ht="13.55" customHeight="1">
+      <c r="A394" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="395" ht="13.55" customHeight="1">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" ht="13.55" customHeight="1">
+      <c r="A396" t="s" s="4">
+        <v>393</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" ht="13.55" customHeight="1">
+      <c r="A397" t="s" s="4">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="398" ht="13.55" customHeight="1">
+      <c r="A398" t="s" s="4">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="399" ht="13.55" customHeight="1">
+      <c r="A399" t="s" s="4">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="400" ht="13.55" customHeight="1">
+      <c r="A400" t="s" s="4">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="401" ht="13.55" customHeight="1">
+      <c r="A401" t="s" s="4">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" ht="13.55" customHeight="1">
+      <c r="A402" t="s" s="4">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="403" ht="13.55" customHeight="1">
+      <c r="A403" t="s" s="4">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="404" ht="13.55" customHeight="1">
+      <c r="A404" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="405" ht="13.55" customHeight="1">
+      <c r="A405" t="s" s="4">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="406" ht="13.55" customHeight="1">
+      <c r="A406" t="s" s="4">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="407" ht="13.55" customHeight="1">
+      <c r="A407" t="s" s="4">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="408" ht="13.55" customHeight="1">
+      <c r="A408" t="s" s="4">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="409" ht="13.55" customHeight="1">
+      <c r="A409" t="s" s="4">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="410" ht="13.55" customHeight="1">
+      <c r="A410" t="s" s="4">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="411" ht="13.55" customHeight="1">
+      <c r="A411" s="5"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" ht="13.55" customHeight="1">
+      <c r="A412" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" ht="13.55" customHeight="1">
+      <c r="A413" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" ht="13.55" customHeight="1">
+      <c r="A414" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="415" ht="13.55" customHeight="1">
+      <c r="A415" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="416" ht="13.55" customHeight="1">
+      <c r="A416" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417" ht="13.55" customHeight="1">
+      <c r="A417" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="418" ht="13.55" customHeight="1">
+      <c r="A418" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="419" ht="13.55" customHeight="1">
+      <c r="A419" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="420" ht="13.55" customHeight="1">
+      <c r="A420" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="421" ht="13.55" customHeight="1">
+      <c r="A421" s="5"/>
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" ht="13.55" customHeight="1">
+      <c r="A422" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" ht="13.55" customHeight="1">
+      <c r="A423" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424" ht="13.55" customHeight="1">
+      <c r="A424" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="425" ht="13.55" customHeight="1">
+      <c r="A425" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="426" ht="13.55" customHeight="1">
+      <c r="A426" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="427" ht="13.55" customHeight="1">
+      <c r="A427" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="428" ht="13.55" customHeight="1">
+      <c r="A428" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="429" ht="13.55" customHeight="1">
+      <c r="A429" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="430" ht="13.55" customHeight="1">
+      <c r="A430" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="431" ht="13.55" customHeight="1">
+      <c r="A431" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="432" ht="13.55" customHeight="1">
+      <c r="A432" s="5"/>
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" ht="13.55" customHeight="1">
+      <c r="A433" s="5"/>
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" ht="13.55" customHeight="1">
+      <c r="A434" s="5"/>
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" ht="13.55" customHeight="1">
+      <c r="A435" s="5"/>
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" ht="13.55" customHeight="1">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B319:C319"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/named_entity_recognition/NER_dictionaries.xlsx
+++ b/named_entity_recognition/NER_dictionaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\CTF_writeups_NLP_analysis\named_entity_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF46C1-F268-4723-A50E-5B62B6569DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7D5C1E-247D-40D9-9C72-5427530ED12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="319">
   <si>
     <t>SQL Injection</t>
   </si>
@@ -976,6 +976,12 @@
   </si>
   <si>
     <t>VULNERABILITY</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>FLAG</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3808,6 +3814,14 @@
         <v>296</v>
       </c>
     </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
